--- a/src/Assets/My_Grade.xlsx
+++ b/src/Assets/My_Grade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellawong/Desktop/react_portfolio/react_portfolio/src/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellawong/Desktop/react_portfolio/src/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B5EC9A-4E25-BA4A-9419-AA57BC6E4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87C4D6-456D-DF46-A965-AB64AA708B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="500" windowWidth="20440" windowHeight="15900" xr2:uid="{478CBBD6-980C-DB4E-B87C-EEF6FE4CF412}"/>
+    <workbookView xWindow="13840" yWindow="500" windowWidth="14580" windowHeight="15900" xr2:uid="{478CBBD6-980C-DB4E-B87C-EEF6FE4CF412}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>ISOM3400</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>COMP1022P</t>
+  </si>
+  <si>
+    <t>ISOM3260</t>
+  </si>
+  <si>
+    <t>Database Design and Administration</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>MGMT2130</t>
+  </si>
+  <si>
+    <t>Business Ethics and Social Responsibility</t>
+  </si>
+  <si>
+    <t>ISOM3210</t>
+  </si>
+  <si>
+    <t>Information System Analysis and Design</t>
   </si>
 </sst>
 </file>
@@ -458,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA856B4F-2D99-484F-A580-FB5B6F5146BA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -481,44 +502,44 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -526,10 +547,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -537,34 +558,67 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/Assets/My_Grade.xlsx
+++ b/src/Assets/My_Grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellawong/Desktop/react_portfolio/src/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D87C4D6-456D-DF46-A965-AB64AA708B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2825161-F77A-9C4A-BA66-B549E5B7CDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13840" yWindow="500" windowWidth="14580" windowHeight="15900" xr2:uid="{478CBBD6-980C-DB4E-B87C-EEF6FE4CF412}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ISOM3400</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>Information System Analysis and Design</t>
+  </si>
+  <si>
+    <t>COMP4321</t>
+  </si>
+  <si>
+    <t>Search Engines for Web and Enterprise Data</t>
+  </si>
+  <si>
+    <t>LABU2060</t>
+  </si>
+  <si>
+    <t>Effective Communication in Business</t>
   </si>
 </sst>
 </file>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA856B4F-2D99-484F-A580-FB5B6F5146BA}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,43 +537,43 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -569,10 +581,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -580,10 +592,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -591,34 +603,56 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
